--- a/outputs/DELHI2.xlsx
+++ b/outputs/DELHI2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI's goal is to find something to contribute to JabRef. Reading the available information is a critical step toward achieving this goal because it allows ABI to understand the context, requirements, and opportunities for contribution. ABI's comprehensive information processing style aligns with gathering all necessary information before acting, and their motivation to accomplish tasks ensures that they will see reading the information as a necessary step.</t>
+Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, contributing, and more. ABI, who has a comprehensive information processing style, will find this level of detail helpful. The structure of the page is clear, with headings and sections that will guide ABI on what to read. Thus, the page is good enough for ABI to take the action of reading the available information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will likely know to read through the available information to understand how to contribute to JabRef. The page is structured in a way that makes it clear where to find relevant information, which will help ABI feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: While the page does contain a considerable amount of information, it is quite dense and could be overwhelming for ABI, who has low confidence in unfamiliar computing tasks and is risk-averse. Additionally, the structure and amount of information might not make it immediately clear to ABI whether they are making progress towards their goal of finding a way to contribute. ABI might struggle to identify the specific steps or opportunities for contribution amid the extensive information provided.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed sections on various aspects of JabRef, including a specific section on "Contributing." This section outlines how to get involved, what to contribute, and provides links to further guidelines and resources. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. By reading through this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef and will have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page contains a section titled "Contributing" with a clearly marked link that says "Learn how to help." This explicitly informs ABI about the next step to take in order to find out how to contribute. Given ABI's preference for structured, process-oriented learning and comprehensive information processing, this clear call to action aligns well with ABI's needs and style, making it likely that ABI will know to click this link and understand that it will help them make progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help." This is a direct call to action that aligns with ABI's motivation to contribute and their need for comprehensive information. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide further information on how to contribute. This reduces uncertainty and aligns with ABI's preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "Learn how to help," ABI lands on a page that lays out various ways to contribute to JabRef in a clear and organized manner. The page is segmented into different categories based on the contributor's background and interests, such as students, new open-source contributors, and lecturers. This structured approach aligns with ABI's comprehensive information processing style and preference for step-by-step processes. Additionally, the links and guidance provided will help ABI feel confident that they are making progress toward their goal and getting the information they need to contribute effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking "Learn how to help" provides clear, categorized information on how to contribute to JabRef. It includes sections tailored to different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This structured and detailed information aligns with ABI's motivation to contribute and their comprehensive information processing style. ABI will know they are making progress toward their goal and will have access to all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well-structured and clearly lays out various ways to contribute to JabRef based on different user profiles (e.g., students, new open-source contributors, lecturers). This organization aligns with ABI's comprehensive information processing style and preference for structured, step-by-step learning. The clear headings and detailed descriptions will help ABI understand what to do next, making the page good enough for ABI to take the action of reading the available information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is well-organized and provides clear, categorized information on how to contribute to JabRef. It includes sections tailored to different types of contributors, such as students, new contributors, and those looking for high-impact contributions. This structure aligns with ABI's motivation to contribute and their comprehensive information processing style. The clear headings and detailed instructions make it easy for ABI to know what to do next and to feel confident in taking the action of reading the page.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute to JabRef" page is well-organized and provides specific categories that align with different user profiles and motivations, such as students, new open-source contributors, and lecturers. Each category has clear instructions and links to further resources. This structured presentation ensures that ABI can easily find the information that is relevant to their specific situation, helping them feel confident that they are making progress toward their goal of contributing to JabRef. The detailed guidance aligns well with ABI's preference for comprehensive information processing and step-by-step learning.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides clear, categorized information on how to contribute to JabRef, tailored to different types of contributors. This structure helps ABI understand that they are making progress toward their goal. The detailed instructions and links to further resources ensure that ABI gets all the information they need. This aligns with ABI's motivation to contribute and their comprehensive information processing style, making it clear that they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute to JabRef" page is clearly organized and provides specific instructions. The link "list of good first issues" is clearly labeled and indicates that it will lead to a list of potential contributions suitable for beginners. This aligns well with ABI's need for clear, step-by-step guidance. Given the clear labeling and the context provided, ABI will know what to do at this step and will feel confident in clicking the link to proceed further.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "list of good first issues" as a link under multiple sections, such as for students and new contributors. This direct call to action aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The link is prominently placed and clearly labeled, making it easy for ABI to understand that clicking it will provide further information on suitable issues to start with. This reduces uncertainty and aligns with ABI's preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on the "list of good first issues" link, ABI lands on a page that lists specific issues labeled as "good first issue." This page is well-organized and provides detailed descriptions of each issue, which aligns with ABI's comprehensive information processing style. The clear labeling and categorization of issues make it easy for ABI to understand that they are making progress toward their goal of finding something to contribute to. The structured presentation ensures that ABI can find all the information they need to select an appropriate issue to work on.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue." This directly aligns with ABI's goal of finding something to contribute to and provides a straightforward way to identify suitable tasks. The issues are well-organized and labeled, making it easy for ABI to understand that they are making progress toward their goal. The detailed information on each issue ensures that ABI gets all the information they need to proceed. This aligns with ABI's motivation to contribute and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page lists various issues labeled as "good first issue" with clear descriptions and tags indicating the type of issue (e.g., bug, enhancement). This organization aligns with ABI's comprehensive information processing style and preference for structured, step-by-step learning. Each issue is presented with enough detail for ABI to understand what the issue involves and decide which one to learn more about. The page's clarity and structure will help ABI know what to do at this step, making it easy for them to click on an issue that interests them to get more information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a list of issues labeled as "good first issue," which is exactly what ABI is looking for. Each issue is clearly labeled with its type and a brief description, making it easy for ABI to understand what each issue entails. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear organization and labeling of the issues make it straightforward for ABI to click on something they want to know more about, ensuring they know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does provide detailed information about the issue, it is quite dense and includes a lot of technical details and discussions. ABI, who has low confidence in unfamiliar computing tasks and prefers comprehensive information, might find this overwhelming. The extensive technical discussions and data visualizations could make it difficult for ABI to quickly determine if they are making progress toward their goal and getting all the information they need. ABI might struggle to identify actionable steps or contributions amid the extensive and technical content provided.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking an issue provides detailed information about the issue, including a description, comments, and discussions. This aligns with ABI's motivation to contribute and their comprehensive information processing style. The detailed information and ongoing discussions ensure that ABI knows they are making progress toward their goal and provide all the necessary context and details to understand the issue fully. This helps ABI feel confident that they did the right thing and are on the right track.</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI2.xlsx
+++ b/outputs/DELHI2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to JabRef. This aligns with ABI's motivation to use technology to accomplish tasks and their comprehensive information processing style.</t>
+Why: ABI is motivated to accomplish the task of finding something to contribute to JabRef. Reading the available information is a logical first step to understand what contributions are needed and how to make them. ABI's comprehensive information processing style means they will likely read through the provided information to form a complete understanding before taking further action.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. ABI, who prefers to gather comprehensive information before acting, will find this page suitable for reading and understanding the available information. The clear headings and structured layout will help ABI know what to do at this step.</t>
+Why: The page provides comprehensive information about JabRef, including sections on features, installation, bug reports, suggestions, feedback, and contributing. ABI, who prefers to gather information comprehensively, will find this page suitable for reading and understanding the available information. The "Contributing" section is clearly labeled and provides detailed instructions, which aligns with ABI's motivation to find something to contribute and their preference for process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed and structured information about contributing to JabRef, including sections on bug reports, suggestions, and contributing guidelines. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. By reading this information, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The clear and organized presentation of information ensures that ABI will get all the necessary details.</t>
+Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on contributing, including guidelines and steps to follow. This aligns with ABI's motivation to contribute and their comprehensive information processing style. The clear and structured information will help ABI feel confident that they are on the right track and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. ABI is motivated to accomplish tasks and prefers to gather comprehensive information. Clicking this link is a logical next step to obtain more detailed information on how to contribute, aligning with ABI's motivations and information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which aligns with ABI's motivation to find something to contribute to JabRef. The page provides a clear call to action, and ABI, who prefers process-oriented learning, will recognize this as a step to gain more detailed instructions on how to contribute. The comprehensive information provided on the page supports ABI's information processing style, making it clear what the next step is.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute to JabRef" page provides clear and detailed information on various ways to contribute, tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The structured layout and specific guidance ensure that ABI will know they are making progress toward their goal and will get all the information they need.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: After clicking "Learn how to help," ABI will land on a page that provides detailed and categorized information on how to contribute to JabRef. The page is well-organized, offering specific paths for different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to find something to contribute and their comprehensive information processing style. The clear instructions and links to further resources (e.g., "list of good first issues," "CONTRIBUTING.md") support ABI's preference for process-oriented learning, ensuring they know they are making progress and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and lecturers. This clear organization and detailed information align with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know to read the page to gather the necessary information to contribute to JabRef.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The page is well-organized and provides clear, categorized information on how to contribute to JabRef, which aligns with ABI's motivation to find something to contribute. The instructions are detailed and specific, catering to different types of contributors (e.g., students, new to open source, looking for high-impact contributions). This supports ABI's comprehensive information processing style and preference for process-oriented learning. The clear structure and detailed guidance will help ABI know what to do at this step and feel confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed and categorized information on various ways to contribute to JabRef, tailored to different types of contributors. This clear and structured presentation aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. By reading this page, ABI will know they are making progress toward their goal and will get all the necessary information to contribute effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: After reading the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides clear, categorized information tailored to different types of contributors, such as students, new contributors, and those looking for high-impact projects. This detailed and structured information aligns with ABI's motivation and comprehensive information processing style. The page also includes links to further resources (e.g., "list of good first issues," "CONTRIBUTING.md"), ensuring ABI has all the necessary information to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "list of good first issues" link is clearly labeled and contextually placed under sections relevant to different types of contributors. This clear labeling and placement align with ABI's motivation to accomplish tasks and their preference for comprehensive information. ABI will know to click this link to find specific issues to contribute to, making it a logical next step in their process.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The page clearly lists "list of good first issues" as a link under multiple sections, such as for students and new contributors. This aligns with ABI's motivation to find something to contribute and provides a clear next step. The link is prominently displayed and labeled, making it easy for ABI to understand what to do next. The page's structured and detailed information supports ABI's comprehensive information processing style and preference for process-oriented learning, ensuring they feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page ABI lands on after clicking "list of good first issues" provides a clear list of issues labeled as "good first issue," along with additional tags indicating the type of issue (e.g., bug, enhancement). This clear and organized presentation aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. ABI will know they are making progress toward their goal and will have access to all the necessary information to choose an issue to work on.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: After clicking on the "list of good first issues," ABI will land on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for new contributors, which aligns with ABI's motivation to find something to contribute. The issues are categorized and labeled, making it easy for ABI to understand the nature of each task. This structured presentation supports ABI's comprehensive information processing style and preference for process-oriented learning. ABI will know they are making progress toward their goal and have the necessary information to choose an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a list of issues with clear labels and tags, making it easy for ABI to read through the options and click on something they want to know more about. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The structured presentation of issues ensures that ABI will know what to do at this step and will find the page good enough to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The page provides a clear list of issues labeled as "good first issue," with each issue having a brief description and tags indicating its type (e.g., bug, enhancement). This aligns with ABI's motivation to find something to contribute and provides a straightforward way to explore different options. The structured presentation and categorization of issues support ABI's comprehensive information processing style and preference for process-oriented learning. ABI will know what to do at this step, as the page is designed to help users find and select issues to work on, making it easy for ABI to click on something they want to know more about.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the issue, the amount of information and the technical nature of the content might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive comments and technical details might make it difficult for ABI to quickly determine if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt if they are on the right track when faced with such a complex page.</t>
+Why: While the page provides detailed information about the issue, including comments and discussions, it may be overwhelming for ABI due to the extensive and technical nature of the content. ABI's comprehensive information processing style means they need clear and structured information to feel confident they are making progress. The technical jargon and detailed discussions might be difficult for ABI to process, especially given their low computer self-efficacy. ABI might struggle to understand if they are making progress toward their goal and may not feel they have all the necessary information to proceed confidently.</t>
         </is>
       </c>
     </row>
